--- a/模型訓練過程/predictor模型.xlsx
+++ b/模型訓練過程/predictor模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A0249-7D30-4666-8034-36A8FD6D60FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38B5C0E-D9DD-49FB-BC6A-8887E760337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23016" yWindow="624" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -473,6 +473,9 @@
       <c r="A6" s="3">
         <v>0.66666666666666663</v>
       </c>
+      <c r="B6">
+        <v>2736</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
